--- a/biology/Botanique/Banksia_ser._Dryandra/Banksia_ser._Dryandra.xlsx
+++ b/biology/Botanique/Banksia_ser._Dryandra/Banksia_ser._Dryandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryandra
 Banksia ser. Dryandra est une série taxonomique du genre Banksia (famille des Proteaceae). Elle est constituée de 94 espèces de petits arbustes buissonnants. Ce taxon est considéré comme un genre à part entière par les évolutionnistes mais a été fusionné par les cladistes en 2007 avec le genre Banksia afin que celui-ci respecte les règles de la classification phylogénétique (pas de paraphylie). Ces espèces se rencontrent toutes dans l'extrémité sud-ouest de l'Australie-Occidentale. La série porte son nom en mémoire du botaniste suédois Jonas C. Dryander.
